--- a/target/test-classes/testdata/loginToTekSchoolRetail.xlsx
+++ b/target/test-classes/testdata/loginToTekSchoolRetail.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\janal\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA3A2E3A-CFF5-4844-A68E-C771104B0A7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5029E4A6-7A8D-4E47-AC6A-A9D50FC31CC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3171CB5A-AB40-4301-8D4B-9A719149C4BE}"/>
   </bookViews>
@@ -44,10 +44,10 @@
     <t>password</t>
   </si>
   <si>
-    <t>janF</t>
+    <t>anisa@gmail.com</t>
   </si>
   <si>
-    <t>janfaizi@gmail.com</t>
+    <t>xyz123</t>
   </si>
 </sst>
 </file>
@@ -444,7 +444,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -462,10 +462,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
